--- a/input/Pseudo_res_data.xlsx
+++ b/input/Pseudo_res_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sth.nhs.uk\user\Documents\093\goodallj2\Resistance_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgoodall/Documents/R projects/Chris_res_data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C690CA9-BB40-4284-97A6-E07035EDD64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC14B92-6043-C045-B4C9-5ADBD2B43891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22920" windowHeight="13230" xr2:uid="{A0F3C006-261A-4499-A2EE-02E7748992EF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22920" windowHeight="13240" xr2:uid="{A0F3C006-261A-4499-A2EE-02E7748992EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="197">
   <si>
     <t>Date Ordered</t>
   </si>
@@ -646,11 +646,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -715,10 +717,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1056,18 +1058,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BA8E2F-F806-49A8-B26B-10295C6033CD}">
-  <dimension ref="A1:E522"/>
+  <dimension ref="A1:E521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="A393" sqref="A393:XFD393"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45443.652777777781</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45443.652777777781</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45443.652777777781</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45443.652777777781</v>
       </c>
@@ -1152,7 +1154,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45443.652777777781</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45443.361805555556</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45443.361805555556</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45443.361805555556</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45443.361805555556</v>
       </c>
@@ -1237,7 +1239,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45443.361805555556</v>
       </c>
@@ -1254,7 +1256,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45443.347222222219</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45443.347222222219</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45443.347222222219</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45443.347222222219</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45443.347222222219</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45441.921527777777</v>
       </c>
@@ -1356,7 +1358,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45441.921527777777</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45441.921527777777</v>
       </c>
@@ -1390,7 +1392,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45441.921527777777</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45441.921527777777</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45441.750694444447</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45441.750694444447</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45441.750694444447</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45441.750694444447</v>
       </c>
@@ -1492,7 +1494,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45441.750694444447</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45441.472222222219</v>
       </c>
@@ -1526,7 +1528,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45441.472222222219</v>
       </c>
@@ -1543,7 +1545,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45441.472222222219</v>
       </c>
@@ -1560,7 +1562,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45441.472222222219</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45441.472222222219</v>
       </c>
@@ -1594,7 +1596,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45441.47152777778</v>
       </c>
@@ -1611,7 +1613,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45441.47152777778</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45441.47152777778</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45441.47152777778</v>
       </c>
@@ -1662,7 +1664,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45441.47152777778</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45440.496527777781</v>
       </c>
@@ -1696,7 +1698,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45440.496527777781</v>
       </c>
@@ -1713,7 +1715,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45440.496527777781</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45440.496527777781</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45440.496527777781</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45439.989583333336</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45439.989583333336</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45439.989583333336</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45439.989583333336</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45439.989583333336</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45439.37777777778</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45439.37777777778</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45439.37777777778</v>
       </c>
@@ -1900,7 +1902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45439.37777777778</v>
       </c>
@@ -1917,7 +1919,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45439.37777777778</v>
       </c>
@@ -1934,7 +1936,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45438.9375</v>
       </c>
@@ -1951,7 +1953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45438.9375</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45438.9375</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45438.9375</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45438.9375</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45438.645138888889</v>
       </c>
@@ -2036,7 +2038,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45438.645138888889</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45438.645138888889</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45438.645138888889</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45438.645138888889</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45438.627083333333</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45438.627083333333</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>45438.627083333333</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>45438.627083333333</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45438.627083333333</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45438.51458333333</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45438.51458333333</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45438.51458333333</v>
       </c>
@@ -2240,7 +2242,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45438.51458333333</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45438.51458333333</v>
       </c>
@@ -2274,7 +2276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45438.47152777778</v>
       </c>
@@ -2291,7 +2293,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45438.47152777778</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45438.47152777778</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45438.47152777778</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45438.47152777778</v>
       </c>
@@ -2359,7 +2361,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45438.407638888886</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45438.407638888886</v>
       </c>
@@ -2393,7 +2395,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45438.407638888886</v>
       </c>
@@ -2410,7 +2412,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45438.407638888886</v>
       </c>
@@ -2427,7 +2429,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45438.407638888886</v>
       </c>
@@ -2444,7 +2446,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45438.00277777778</v>
       </c>
@@ -2461,7 +2463,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45438.00277777778</v>
       </c>
@@ -2478,7 +2480,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45438.00277777778</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45438.00277777778</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45438.00277777778</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45436.950694444444</v>
       </c>
@@ -2546,7 +2548,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45436.950694444444</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45436.950694444444</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45436.950694444444</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>45436.950694444444</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>45436.777777777781</v>
       </c>
@@ -2631,7 +2633,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45436.777777777781</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>45436.777777777781</v>
       </c>
@@ -2665,7 +2667,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45436.777777777781</v>
       </c>
@@ -2682,7 +2684,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45436.777777777781</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45436.747916666667</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>45436.747916666667</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45436.747916666667</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45436.747916666667</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45436.747916666667</v>
       </c>
@@ -2784,7 +2786,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45436.747916666667</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45436.747916666667</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45436.747916666667</v>
       </c>
@@ -2835,7 +2837,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45436.747916666667</v>
       </c>
@@ -2852,7 +2854,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45436.747916666667</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45436.6875</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45436.6875</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45436.6875</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>45436.6875</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45436.6875</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45436.571527777778</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45436.571527777778</v>
       </c>
@@ -2988,7 +2990,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45436.571527777778</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>45436.571527777778</v>
       </c>
@@ -3022,7 +3024,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>45436.571527777778</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45436.571527777778</v>
       </c>
@@ -3056,7 +3058,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45436.569444444445</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45436.569444444445</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45436.569444444445</v>
       </c>
@@ -3107,7 +3109,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45436.569444444445</v>
       </c>
@@ -3124,7 +3126,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45436.569444444445</v>
       </c>
@@ -3141,7 +3143,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45436.501388888886</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45436.501388888886</v>
       </c>
@@ -3175,7 +3177,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45436.501388888886</v>
       </c>
@@ -3192,7 +3194,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45436.501388888886</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>45436.501388888886</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45436.388888888891</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45436.388888888891</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45436.388888888891</v>
       </c>
@@ -3277,7 +3279,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45436.388888888891</v>
       </c>
@@ -3294,7 +3296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45436.388888888891</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45435.933333333334</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45435.933333333334</v>
       </c>
@@ -3345,7 +3347,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>45435.933333333334</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>45435.933333333334</v>
       </c>
@@ -3379,7 +3381,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>45435.933333333334</v>
       </c>
@@ -3396,7 +3398,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45435.425694444442</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45435.425694444442</v>
       </c>
@@ -3430,7 +3432,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>45435.425694444442</v>
       </c>
@@ -3447,7 +3449,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>45435.425694444442</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>45435.425694444442</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>45435.345833333333</v>
       </c>
@@ -3498,7 +3500,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>45435.345833333333</v>
       </c>
@@ -3515,7 +3517,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>45435.345833333333</v>
       </c>
@@ -3532,7 +3534,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>45435.345833333333</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>45435.345833333333</v>
       </c>
@@ -3566,7 +3568,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>45434.808333333334</v>
       </c>
@@ -3583,7 +3585,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>45434.808333333334</v>
       </c>
@@ -3600,7 +3602,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>45434.808333333334</v>
       </c>
@@ -3617,7 +3619,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>45434.808333333334</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>45434.808333333334</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>45434.757638888892</v>
       </c>
@@ -3668,7 +3670,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>45434.757638888892</v>
       </c>
@@ -3685,7 +3687,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>45434.757638888892</v>
       </c>
@@ -3702,7 +3704,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>45434.757638888892</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>45434.757638888892</v>
       </c>
@@ -3736,7 +3738,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>45434.588888888888</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>45434.588888888888</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>45434.588888888888</v>
       </c>
@@ -3787,7 +3789,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>45434.588888888888</v>
       </c>
@@ -3804,7 +3806,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>45434.588888888888</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>45434.511111111111</v>
       </c>
@@ -3838,7 +3840,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>45434.511111111111</v>
       </c>
@@ -3855,7 +3857,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>45434.511111111111</v>
       </c>
@@ -3872,7 +3874,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>45434.511111111111</v>
       </c>
@@ -3889,7 +3891,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>45434.511111111111</v>
       </c>
@@ -3906,7 +3908,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>45433.729861111111</v>
       </c>
@@ -3923,7 +3925,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>45433.729861111111</v>
       </c>
@@ -3940,7 +3942,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>45433.729861111111</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>45433.729861111111</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>45433.729861111111</v>
       </c>
@@ -3991,7 +3993,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>45433.654861111114</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>45433.654861111114</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>45433.654861111114</v>
       </c>
@@ -4042,7 +4044,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>45433.654861111114</v>
       </c>
@@ -4059,7 +4061,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>45433.654861111114</v>
       </c>
@@ -4076,7 +4078,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>45433.530555555553</v>
       </c>
@@ -4093,7 +4095,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>45433.530555555553</v>
       </c>
@@ -4110,7 +4112,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>45433.530555555553</v>
       </c>
@@ -4127,7 +4129,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>45433.530555555553</v>
       </c>
@@ -4144,7 +4146,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>45433.530555555553</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>45433.529166666667</v>
       </c>
@@ -4178,7 +4180,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>45433.529166666667</v>
       </c>
@@ -4195,7 +4197,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>45433.529166666667</v>
       </c>
@@ -4212,7 +4214,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>45433.529166666667</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>45433.529166666667</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>45433.529166666667</v>
       </c>
@@ -4263,7 +4265,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>45432.928472222222</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>45432.928472222222</v>
       </c>
@@ -4297,7 +4299,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>45432.928472222222</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>45432.928472222222</v>
       </c>
@@ -4331,7 +4333,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>45432.928472222222</v>
       </c>
@@ -4348,7 +4350,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>45432.693749999999</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>45432.693749999999</v>
       </c>
@@ -4382,7 +4384,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>45432.693749999999</v>
       </c>
@@ -4399,7 +4401,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>45432.693749999999</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>45432.693749999999</v>
       </c>
@@ -4433,7 +4435,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>45431.938194444447</v>
       </c>
@@ -4450,7 +4452,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>45431.938194444447</v>
       </c>
@@ -4467,7 +4469,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>45431.938194444447</v>
       </c>
@@ -4484,7 +4486,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>45431.938194444447</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>45431.938194444447</v>
       </c>
@@ -4518,7 +4520,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>45431.938194444447</v>
       </c>
@@ -4535,7 +4537,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>45431.938194444447</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>45431.938194444447</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>45431.938194444447</v>
       </c>
@@ -4586,7 +4588,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>45431.938194444447</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4620,7 +4622,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4637,7 +4639,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4654,7 +4656,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4671,7 +4673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4688,7 +4690,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4705,7 +4707,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4722,7 +4724,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4773,7 +4775,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4790,7 +4792,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4824,7 +4826,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4841,7 +4843,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4858,7 +4860,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>45430.79583333333</v>
       </c>
@@ -4892,7 +4894,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>45430.347222222219</v>
       </c>
@@ -4909,7 +4911,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>45430.347222222219</v>
       </c>
@@ -4926,7 +4928,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>45430.347222222219</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>45430.347222222219</v>
       </c>
@@ -4960,7 +4962,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>45430.347222222219</v>
       </c>
@@ -4977,7 +4979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>45429.712500000001</v>
       </c>
@@ -4994,7 +4996,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>45429.712500000001</v>
       </c>
@@ -5011,7 +5013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>45429.712500000001</v>
       </c>
@@ -5028,7 +5030,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>45429.712500000001</v>
       </c>
@@ -5045,7 +5047,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>45429.712500000001</v>
       </c>
@@ -5062,7 +5064,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>45429.416666666664</v>
       </c>
@@ -5079,7 +5081,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>45429.416666666664</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>45429.416666666664</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>45429.416666666664</v>
       </c>
@@ -5130,7 +5132,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>45429.416666666664</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>45429.415972222225</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>45429.415972222225</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>45429.415972222225</v>
       </c>
@@ -5198,7 +5200,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>45429.415972222225</v>
       </c>
@@ -5215,7 +5217,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>45429.415972222225</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>45429.415277777778</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>45429.415277777778</v>
       </c>
@@ -5266,7 +5268,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>45429.415277777778</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>45429.415277777778</v>
       </c>
@@ -5300,7 +5302,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>45429.415277777778</v>
       </c>
@@ -5317,7 +5319,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>45428.804861111108</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>45428.804861111108</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>45428.804861111108</v>
       </c>
@@ -5368,7 +5370,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>45428.804861111108</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>45428.804861111108</v>
       </c>
@@ -5402,7 +5404,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>45428.345138888886</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>45428.345138888886</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>45428.345138888886</v>
       </c>
@@ -5453,7 +5455,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>45428.345138888886</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>45428.345138888886</v>
       </c>
@@ -5487,7 +5489,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>45427.447222222225</v>
       </c>
@@ -5504,7 +5506,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>45427.447222222225</v>
       </c>
@@ -5521,7 +5523,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>45427.447222222225</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>45427.447222222225</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>45427.447222222225</v>
       </c>
@@ -5572,7 +5574,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>45427.447222222225</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>45427.447222222225</v>
       </c>
@@ -5606,7 +5608,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>45426.594444444447</v>
       </c>
@@ -5623,7 +5625,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>45426.594444444447</v>
       </c>
@@ -5640,7 +5642,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>45426.594444444447</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>45426.594444444447</v>
       </c>
@@ -5674,7 +5676,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>45426.594444444447</v>
       </c>
@@ -5691,7 +5693,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>45425.797222222223</v>
       </c>
@@ -5708,7 +5710,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>45425.797222222223</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>45425.797222222223</v>
       </c>
@@ -5742,7 +5744,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>45425.797222222223</v>
       </c>
@@ -5759,7 +5761,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>45425.797222222223</v>
       </c>
@@ -5776,7 +5778,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>45425.737500000003</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>45425.737500000003</v>
       </c>
@@ -5810,7 +5812,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>45425.737500000003</v>
       </c>
@@ -5827,7 +5829,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>45425.737500000003</v>
       </c>
@@ -5844,7 +5846,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>45425.737500000003</v>
       </c>
@@ -5861,7 +5863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>45425.60833333333</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>45425.60833333333</v>
       </c>
@@ -5895,7 +5897,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>45425.60833333333</v>
       </c>
@@ -5912,7 +5914,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>45425.60833333333</v>
       </c>
@@ -5929,7 +5931,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>45425.60833333333</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>45425.472222222219</v>
       </c>
@@ -5963,7 +5965,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>45425.472222222219</v>
       </c>
@@ -5980,7 +5982,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>45425.472222222219</v>
       </c>
@@ -5997,7 +5999,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>45425.472222222219</v>
       </c>
@@ -6014,7 +6016,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>45425.472222222219</v>
       </c>
@@ -6031,7 +6033,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>45425.470138888886</v>
       </c>
@@ -6048,7 +6050,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>45425.470138888886</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>45425.470138888886</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>45425.470138888886</v>
       </c>
@@ -6099,7 +6101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>45425.470138888886</v>
       </c>
@@ -6116,7 +6118,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>45425.470138888886</v>
       </c>
@@ -6133,7 +6135,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>45425.459027777775</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>45425.459027777775</v>
       </c>
@@ -6167,7 +6169,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>45425.459027777775</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>45425.459027777775</v>
       </c>
@@ -6201,7 +6203,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>45425.459027777775</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>45425.35</v>
       </c>
@@ -6235,7 +6237,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>45425.35</v>
       </c>
@@ -6252,7 +6254,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>45425.35</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>45425.35</v>
       </c>
@@ -6286,7 +6288,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>45425.35</v>
       </c>
@@ -6303,7 +6305,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>45423.888888888891</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>45423.888888888891</v>
       </c>
@@ -6337,7 +6339,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>45423.888888888891</v>
       </c>
@@ -6354,7 +6356,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>45423.888888888891</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>45423.888888888891</v>
       </c>
@@ -6388,7 +6390,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>45423.834722222222</v>
       </c>
@@ -6405,7 +6407,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>45423.834722222222</v>
       </c>
@@ -6422,7 +6424,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>45423.834722222222</v>
       </c>
@@ -6439,7 +6441,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>45423.834722222222</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>45423.834722222222</v>
       </c>
@@ -6473,7 +6475,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>45423.618055555555</v>
       </c>
@@ -6490,7 +6492,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>45423.618055555555</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>45423.618055555555</v>
       </c>
@@ -6524,7 +6526,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>45423.618055555555</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>45423.618055555555</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>45423.617361111108</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>45423.617361111108</v>
       </c>
@@ -6592,7 +6594,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>45423.617361111108</v>
       </c>
@@ -6609,7 +6611,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>45423.617361111108</v>
       </c>
@@ -6626,7 +6628,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>45423.617361111108</v>
       </c>
@@ -6643,7 +6645,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>45422.931944444441</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>45422.931944444441</v>
       </c>
@@ -6677,7 +6679,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>45422.931944444441</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>45422.931944444441</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>45422.931944444441</v>
       </c>
@@ -6728,7 +6730,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>45422.650694444441</v>
       </c>
@@ -6745,7 +6747,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>45422.650694444441</v>
       </c>
@@ -6762,7 +6764,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>45422.650694444441</v>
       </c>
@@ -6779,7 +6781,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>45422.650694444441</v>
       </c>
@@ -6796,7 +6798,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>45422.650694444441</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>45422.637499999997</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>45422.637499999997</v>
       </c>
@@ -6847,7 +6849,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>45422.637499999997</v>
       </c>
@@ -6864,7 +6866,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>45422.637499999997</v>
       </c>
@@ -6881,7 +6883,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>45422.637499999997</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>45422.34375</v>
       </c>
@@ -6915,7 +6917,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>45422.34375</v>
       </c>
@@ -6932,7 +6934,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>45422.34375</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>45422.34375</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>45422.34375</v>
       </c>
@@ -6983,7 +6985,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>45422.340277777781</v>
       </c>
@@ -7000,7 +7002,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>45422.340277777781</v>
       </c>
@@ -7017,7 +7019,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>45422.340277777781</v>
       </c>
@@ -7034,7 +7036,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>45422.340277777781</v>
       </c>
@@ -7051,7 +7053,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>45422.340277777781</v>
       </c>
@@ -7068,7 +7070,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>45422.340277777781</v>
       </c>
@@ -7085,7 +7087,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>45421.746527777781</v>
       </c>
@@ -7102,7 +7104,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>45421.746527777781</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>45421.746527777781</v>
       </c>
@@ -7136,7 +7138,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>45421.746527777781</v>
       </c>
@@ -7153,7 +7155,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>45421.746527777781</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>45421.746527777781</v>
       </c>
@@ -7187,7 +7189,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>45421.746527777781</v>
       </c>
@@ -7204,7 +7206,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>45421.348611111112</v>
       </c>
@@ -7221,7 +7223,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>45421.348611111112</v>
       </c>
@@ -7238,7 +7240,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>45421.348611111112</v>
       </c>
@@ -7255,7 +7257,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>45421.348611111112</v>
       </c>
@@ -7272,7 +7274,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>45421.348611111112</v>
       </c>
@@ -7289,7 +7291,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>45420.806944444441</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>45420.806944444441</v>
       </c>
@@ -7323,7 +7325,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>45420.806944444441</v>
       </c>
@@ -7340,7 +7342,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>45420.806944444441</v>
       </c>
@@ -7357,7 +7359,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>45420.806944444441</v>
       </c>
@@ -7374,7 +7376,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>45420.701388888891</v>
       </c>
@@ -7391,7 +7393,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>45420.701388888891</v>
       </c>
@@ -7408,7 +7410,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>45420.701388888891</v>
       </c>
@@ -7425,7 +7427,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>45420.701388888891</v>
       </c>
@@ -7442,7 +7444,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>45420.701388888891</v>
       </c>
@@ -7459,7 +7461,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>45419.924305555556</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>45419.924305555556</v>
       </c>
@@ -7493,7 +7495,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>45419.924305555556</v>
       </c>
@@ -7510,7 +7512,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>45419.924305555556</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>45419.924305555556</v>
       </c>
@@ -7544,7 +7546,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>45419.861111111109</v>
       </c>
@@ -7561,7 +7563,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>45419.861111111109</v>
       </c>
@@ -7578,7 +7580,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>45419.861111111109</v>
       </c>
@@ -7595,7 +7597,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>45419.861111111109</v>
       </c>
@@ -7612,7 +7614,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>45419.861111111109</v>
       </c>
@@ -7629,7 +7631,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>45419.861111111109</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>45419.861111111109</v>
       </c>
@@ -7663,7 +7665,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>45419.861111111109</v>
       </c>
@@ -7680,7 +7682,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>45419.861111111109</v>
       </c>
@@ -7697,7 +7699,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>45419.861111111109</v>
       </c>
@@ -7714,7 +7716,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>45418.453472222223</v>
       </c>
@@ -7731,7 +7733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>45418.453472222223</v>
       </c>
@@ -7739,16 +7741,16 @@
         <v>17</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E393" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>45418.453472222223</v>
       </c>
@@ -7756,16 +7758,16 @@
         <v>17</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E394" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>45418.453472222223</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>17</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>11</v>
@@ -7782,7 +7784,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>45418.453472222223</v>
       </c>
@@ -7790,7 +7792,7 @@
         <v>17</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>11</v>
@@ -7799,24 +7801,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
-        <v>45418.453472222223</v>
+        <v>45417.908333333333</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E397" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>45417.908333333333</v>
       </c>
@@ -7824,16 +7826,16 @@
         <v>17</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E398" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>45417.908333333333</v>
       </c>
@@ -7841,16 +7843,16 @@
         <v>17</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E399" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>45417.908333333333</v>
       </c>
@@ -7858,7 +7860,7 @@
         <v>17</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>11</v>
@@ -7867,7 +7869,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>45417.908333333333</v>
       </c>
@@ -7875,7 +7877,7 @@
         <v>17</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>11</v>
@@ -7884,24 +7886,24 @@
         <v>172</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
-        <v>45417.908333333333</v>
+        <v>45417.589583333334</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E402" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>45417.589583333334</v>
       </c>
@@ -7909,16 +7911,16 @@
         <v>17</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E403" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>45417.589583333334</v>
       </c>
@@ -7926,16 +7928,16 @@
         <v>17</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E404" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>45417.589583333334</v>
       </c>
@@ -7943,7 +7945,7 @@
         <v>17</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>11</v>
@@ -7952,7 +7954,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>45417.589583333334</v>
       </c>
@@ -7960,7 +7962,7 @@
         <v>17</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>11</v>
@@ -7969,24 +7971,24 @@
         <v>173</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
-        <v>45417.589583333334</v>
+        <v>45417.369444444441</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E407" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>45417.369444444441</v>
       </c>
@@ -7994,7 +7996,7 @@
         <v>6</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>11</v>
@@ -8003,7 +8005,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>45417.369444444441</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>6</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>11</v>
@@ -8020,7 +8022,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>45417.369444444441</v>
       </c>
@@ -8028,7 +8030,7 @@
         <v>6</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>11</v>
@@ -8037,7 +8039,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>45417.369444444441</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>6</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>11</v>
@@ -8054,24 +8056,24 @@
         <v>174</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>45417.369444444441</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E412" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>45417.369444444441</v>
       </c>
@@ -8079,16 +8081,16 @@
         <v>17</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E413" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>45417.369444444441</v>
       </c>
@@ -8096,16 +8098,16 @@
         <v>17</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E414" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>45417.369444444441</v>
       </c>
@@ -8113,7 +8115,7 @@
         <v>17</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>11</v>
@@ -8122,7 +8124,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>45417.369444444441</v>
       </c>
@@ -8130,7 +8132,7 @@
         <v>17</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>11</v>
@@ -8139,24 +8141,24 @@
         <v>175</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
-        <v>45417.369444444441</v>
+        <v>45417.365972222222</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E417" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>45417.365972222222</v>
       </c>
@@ -8164,16 +8166,16 @@
         <v>17</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E418" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>45417.365972222222</v>
       </c>
@@ -8181,16 +8183,16 @@
         <v>17</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E419" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>45417.365972222222</v>
       </c>
@@ -8198,7 +8200,7 @@
         <v>17</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>11</v>
@@ -8207,7 +8209,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>45417.365972222222</v>
       </c>
@@ -8215,7 +8217,7 @@
         <v>17</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>11</v>
@@ -8224,24 +8226,24 @@
         <v>176</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
-        <v>45417.365972222222</v>
+        <v>45416.981249999997</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E422" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>45416.981249999997</v>
       </c>
@@ -8249,16 +8251,16 @@
         <v>17</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E423" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>45416.981249999997</v>
       </c>
@@ -8266,16 +8268,16 @@
         <v>17</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E424" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>45416.981249999997</v>
       </c>
@@ -8283,7 +8285,7 @@
         <v>17</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>11</v>
@@ -8292,7 +8294,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>45416.981249999997</v>
       </c>
@@ -8300,33 +8302,33 @@
         <v>17</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E426" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
-        <v>45416.981249999997</v>
+        <v>45416.980555555558</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E427" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>45416.980555555558</v>
       </c>
@@ -8334,16 +8336,16 @@
         <v>17</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E428" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>45416.980555555558</v>
       </c>
@@ -8351,16 +8353,16 @@
         <v>17</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E429" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>45416.980555555558</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>17</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>11</v>
@@ -8377,7 +8379,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>45416.980555555558</v>
       </c>
@@ -8385,33 +8387,33 @@
         <v>17</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E431" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
-        <v>45416.980555555558</v>
+        <v>45416.979861111111</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E432" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>45416.979861111111</v>
       </c>
@@ -8419,16 +8421,16 @@
         <v>6</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E433" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>45416.979861111111</v>
       </c>
@@ -8436,7 +8438,7 @@
         <v>6</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D434" s="3" t="s">
         <v>8</v>
@@ -8445,7 +8447,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>45416.979861111111</v>
       </c>
@@ -8453,7 +8455,7 @@
         <v>6</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>8</v>
@@ -8462,7 +8464,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>45416.979861111111</v>
       </c>
@@ -8470,33 +8472,33 @@
         <v>6</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E436" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
-        <v>45416.979861111111</v>
+        <v>45416.755555555559</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D437" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E437" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>45416.755555555559</v>
       </c>
@@ -8504,16 +8506,16 @@
         <v>17</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E438" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>45416.755555555559</v>
       </c>
@@ -8521,16 +8523,16 @@
         <v>17</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E439" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>45416.755555555559</v>
       </c>
@@ -8538,7 +8540,7 @@
         <v>17</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>11</v>
@@ -8547,7 +8549,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>45416.755555555559</v>
       </c>
@@ -8555,33 +8557,33 @@
         <v>17</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E441" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
-        <v>45416.755555555559</v>
+        <v>45416.01458333333</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E442" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>45416.01458333333</v>
       </c>
@@ -8589,7 +8591,7 @@
         <v>6</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>11</v>
@@ -8598,7 +8600,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>45416.01458333333</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>6</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>11</v>
@@ -8615,7 +8617,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>45416.01458333333</v>
       </c>
@@ -8623,7 +8625,7 @@
         <v>6</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>11</v>
@@ -8632,7 +8634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>45416.01458333333</v>
       </c>
@@ -8640,7 +8642,7 @@
         <v>6</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>11</v>
@@ -8649,7 +8651,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>45416.01458333333</v>
       </c>
@@ -8657,16 +8659,16 @@
         <v>6</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E447" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>45416.01458333333</v>
       </c>
@@ -8674,7 +8676,7 @@
         <v>6</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>11</v>
@@ -8683,7 +8685,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>45416.01458333333</v>
       </c>
@@ -8691,7 +8693,7 @@
         <v>6</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>11</v>
@@ -8700,7 +8702,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>45416.01458333333</v>
       </c>
@@ -8708,7 +8710,7 @@
         <v>6</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>11</v>
@@ -8717,7 +8719,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>45416.01458333333</v>
       </c>
@@ -8725,7 +8727,7 @@
         <v>6</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>11</v>
@@ -8734,24 +8736,24 @@
         <v>182</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
-        <v>45416.01458333333</v>
+        <v>45415.782638888886</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E452" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>45415.782638888886</v>
       </c>
@@ -8759,7 +8761,7 @@
         <v>6</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>8</v>
@@ -8768,7 +8770,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>45415.782638888886</v>
       </c>
@@ -8776,16 +8778,16 @@
         <v>6</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E454" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>45415.782638888886</v>
       </c>
@@ -8793,7 +8795,7 @@
         <v>6</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>11</v>
@@ -8802,7 +8804,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>45415.782638888886</v>
       </c>
@@ -8810,33 +8812,33 @@
         <v>6</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E456" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
-        <v>45415.782638888886</v>
+        <v>45415.520833333336</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E457" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>45415.520833333336</v>
       </c>
@@ -8844,16 +8846,16 @@
         <v>17</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E458" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>45415.520833333336</v>
       </c>
@@ -8861,16 +8863,16 @@
         <v>17</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E459" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>45415.520833333336</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>17</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>11</v>
@@ -8887,7 +8889,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>45415.520833333336</v>
       </c>
@@ -8895,33 +8897,33 @@
         <v>17</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E461" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
-        <v>45415.520833333336</v>
+        <v>45415.445833333331</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E462" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>45415.445833333331</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>6</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D463" s="3" t="s">
         <v>11</v>
@@ -8938,7 +8940,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>45415.445833333331</v>
       </c>
@@ -8946,7 +8948,7 @@
         <v>6</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D464" s="3" t="s">
         <v>11</v>
@@ -8955,7 +8957,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>45415.445833333331</v>
       </c>
@@ -8963,7 +8965,7 @@
         <v>6</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D465" s="3" t="s">
         <v>11</v>
@@ -8972,7 +8974,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>45415.445833333331</v>
       </c>
@@ -8980,7 +8982,7 @@
         <v>6</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D466" s="3" t="s">
         <v>11</v>
@@ -8989,24 +8991,24 @@
         <v>185</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
-        <v>45415.445833333331</v>
+        <v>45415.340277777781</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D467" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E467" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>45415.340277777781</v>
       </c>
@@ -9014,7 +9016,7 @@
         <v>6</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>11</v>
@@ -9023,7 +9025,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>45415.340277777781</v>
       </c>
@@ -9031,7 +9033,7 @@
         <v>6</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D469" s="3" t="s">
         <v>11</v>
@@ -9040,7 +9042,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>45415.340277777781</v>
       </c>
@@ -9048,7 +9050,7 @@
         <v>6</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>11</v>
@@ -9057,7 +9059,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>45415.340277777781</v>
       </c>
@@ -9065,7 +9067,7 @@
         <v>6</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D471" s="3" t="s">
         <v>11</v>
@@ -9074,24 +9076,24 @@
         <v>186</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
-        <v>45415.340277777781</v>
+        <v>45415.155555555553</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D472" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E472" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>45415.155555555553</v>
       </c>
@@ -9099,16 +9101,16 @@
         <v>17</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E473" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>45415.155555555553</v>
       </c>
@@ -9116,16 +9118,16 @@
         <v>17</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E474" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>45415.155555555553</v>
       </c>
@@ -9133,7 +9135,7 @@
         <v>17</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>11</v>
@@ -9142,7 +9144,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>45415.155555555553</v>
       </c>
@@ -9150,7 +9152,7 @@
         <v>17</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>11</v>
@@ -9159,24 +9161,24 @@
         <v>187</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
-        <v>45415.155555555553</v>
+        <v>45414.815972222219</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E477" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>45414.815972222219</v>
       </c>
@@ -9184,7 +9186,7 @@
         <v>6</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>8</v>
@@ -9193,7 +9195,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>45414.815972222219</v>
       </c>
@@ -9201,16 +9203,16 @@
         <v>6</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E479" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>45414.815972222219</v>
       </c>
@@ -9218,7 +9220,7 @@
         <v>6</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>11</v>
@@ -9227,7 +9229,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>45414.815972222219</v>
       </c>
@@ -9235,7 +9237,7 @@
         <v>6</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>11</v>
@@ -9244,24 +9246,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
-        <v>45414.815972222219</v>
+        <v>45414.567361111112</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E482" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>45414.567361111112</v>
       </c>
@@ -9269,16 +9271,16 @@
         <v>17</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E483" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>45414.567361111112</v>
       </c>
@@ -9286,16 +9288,16 @@
         <v>17</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E484" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>45414.567361111112</v>
       </c>
@@ -9303,7 +9305,7 @@
         <v>17</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D485" s="3" t="s">
         <v>11</v>
@@ -9312,7 +9314,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>45414.567361111112</v>
       </c>
@@ -9320,7 +9322,7 @@
         <v>17</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D486" s="3" t="s">
         <v>11</v>
@@ -9329,24 +9331,24 @@
         <v>189</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
-        <v>45414.567361111112</v>
+        <v>45414.548611111109</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E487" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>45414.548611111109</v>
       </c>
@@ -9354,16 +9356,16 @@
         <v>17</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E488" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>45414.548611111109</v>
       </c>
@@ -9371,16 +9373,16 @@
         <v>17</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E489" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>45414.548611111109</v>
       </c>
@@ -9388,7 +9390,7 @@
         <v>17</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>11</v>
@@ -9397,7 +9399,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>45414.548611111109</v>
       </c>
@@ -9405,7 +9407,7 @@
         <v>17</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>11</v>
@@ -9414,24 +9416,24 @@
         <v>190</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
-        <v>45414.548611111109</v>
+        <v>45414.428472222222</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E492" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>45414.428472222222</v>
       </c>
@@ -9439,16 +9441,16 @@
         <v>6</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E493" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>45414.428472222222</v>
       </c>
@@ -9456,16 +9458,16 @@
         <v>6</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E494" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>45414.428472222222</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>6</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>11</v>
@@ -9482,7 +9484,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>45414.428472222222</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>6</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D496" s="3" t="s">
         <v>11</v>
@@ -9499,24 +9501,24 @@
         <v>191</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
-        <v>45414.428472222222</v>
+        <v>45414.35</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E497" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>45414.35</v>
       </c>
@@ -9524,16 +9526,16 @@
         <v>6</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E498" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>45414.35</v>
       </c>
@@ -9541,16 +9543,16 @@
         <v>6</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E499" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>45414.35</v>
       </c>
@@ -9558,7 +9560,7 @@
         <v>6</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>11</v>
@@ -9567,7 +9569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>45414.35</v>
       </c>
@@ -9575,7 +9577,7 @@
         <v>6</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>11</v>
@@ -9584,24 +9586,24 @@
         <v>192</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
-        <v>45414.35</v>
+        <v>45413.8125</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D502" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E502" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>45413.8125</v>
       </c>
@@ -9609,16 +9611,16 @@
         <v>17</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E503" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>45413.8125</v>
       </c>
@@ -9626,16 +9628,16 @@
         <v>17</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E504" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>45413.8125</v>
       </c>
@@ -9643,7 +9645,7 @@
         <v>17</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D505" s="3" t="s">
         <v>11</v>
@@ -9652,7 +9654,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>45413.8125</v>
       </c>
@@ -9660,7 +9662,7 @@
         <v>17</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>11</v>
@@ -9669,24 +9671,24 @@
         <v>193</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
-        <v>45413.8125</v>
+        <v>45413.75277777778</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D507" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E507" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>45413.75277777778</v>
       </c>
@@ -9694,16 +9696,16 @@
         <v>6</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E508" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>45413.75277777778</v>
       </c>
@@ -9711,16 +9713,16 @@
         <v>6</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E509" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>45413.75277777778</v>
       </c>
@@ -9728,7 +9730,7 @@
         <v>6</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D510" s="3" t="s">
         <v>11</v>
@@ -9737,7 +9739,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>45413.75277777778</v>
       </c>
@@ -9745,7 +9747,7 @@
         <v>6</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D511" s="3" t="s">
         <v>11</v>
@@ -9754,24 +9756,24 @@
         <v>194</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
-        <v>45413.75277777778</v>
+        <v>45413.696527777778</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D512" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E512" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>45413.696527777778</v>
       </c>
@@ -9779,7 +9781,7 @@
         <v>6</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D513" s="3" t="s">
         <v>11</v>
@@ -9788,7 +9790,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>45413.696527777778</v>
       </c>
@@ -9796,7 +9798,7 @@
         <v>6</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D514" s="3" t="s">
         <v>11</v>
@@ -9805,7 +9807,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>45413.696527777778</v>
       </c>
@@ -9813,7 +9815,7 @@
         <v>6</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D515" s="3" t="s">
         <v>11</v>
@@ -9822,7 +9824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>45413.696527777778</v>
       </c>
@@ -9830,7 +9832,7 @@
         <v>6</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D516" s="3" t="s">
         <v>11</v>
@@ -9839,24 +9841,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
-        <v>45413.696527777778</v>
+        <v>45413.695138888892</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D517" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E517" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>45413.695138888892</v>
       </c>
@@ -9864,16 +9866,16 @@
         <v>6</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E518" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>45413.695138888892</v>
       </c>
@@ -9881,16 +9883,16 @@
         <v>6</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E519" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>45413.695138888892</v>
       </c>
@@ -9898,7 +9900,7 @@
         <v>6</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D520" s="3" t="s">
         <v>11</v>
@@ -9907,7 +9909,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>45413.695138888892</v>
       </c>
@@ -9915,29 +9917,12 @@
         <v>6</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E521" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="2">
-        <v>45413.695138888892</v>
-      </c>
-      <c r="B522" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D522" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E522" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9955,12 +9940,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9968,805 +9953,805 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">CONCATENATE("MX", TEXT(RANDBETWEEN(100000, 999999), "000000"))</f>
-        <v>MX270958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX653072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" ca="1" si="0">CONCATENATE("MX", TEXT(RANDBETWEEN(100000, 999999), "000000"))</f>
-        <v>MX417293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX734780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX262665</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX610681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX385358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX702395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX748820</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX723229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX118871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX353409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX493011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX596375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX290038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX497162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX842864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX261307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX156199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX197770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX645756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX803306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX182890</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX533283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX886714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX645500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX414029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX550215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX576517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX566048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX524749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX754291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX649078</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX350000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX413346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX826711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX686142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX888186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX320085</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX892501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX632217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX154891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX915188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX869156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX551985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX597696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX386557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX872553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX567466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX410060</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX563624</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX243993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX836061</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX534330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX114197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX279017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX479795</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX705527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX498199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX339379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX956794</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX709380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX784748</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX816263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX678396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX352095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX872338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX649009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX121800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX195501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX150702</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX894807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX243463</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX610364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX553673</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX256685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX787925</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX564014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX736400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX287565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX136015</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX835021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX749688</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX630210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX434699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX482080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX419365</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX390846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX565162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX305782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX611042</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX500408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX831262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX886421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX559918</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX498664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX887386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX169764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX740026</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX591948</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX581102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX986426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX947327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX578980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX892792</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX925256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX911247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX635665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX673928</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX141980</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX412651</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX766601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX995753</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX394267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX320783</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX501051</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX515015</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX835856</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX865330</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX268379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX373869</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX747208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX794634</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX356327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX856913</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX668475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX474690</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX927954</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MX316767</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX400675</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B90" ca="1" si="1">CONCATENATE("MX", TEXT(RANDBETWEEN(100000, 999999), "000000"))</f>
-        <v>MX387627</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX559695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX691319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX706619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX449227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX282130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX732781</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX198482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX543378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX587947</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX196672</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX649763</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX842235</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX915474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX634156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX229735</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX458223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX972728</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX827622</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX252928</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX509055</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX667112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX538112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX897235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX317350</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX548028</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX578534</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX271464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX672147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX864880</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX559233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX959156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX805564</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX970563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX832262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX450405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX723671</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX478025</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX985905</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX497404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX246982</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX155652</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX878938</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX197240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX353430</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>MX520812</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MX723031</v>
+        <v>MX388856</v>
       </c>
     </row>
   </sheetData>
